--- a/metaData/togo-2013_vignettes_codebook.xlsx
+++ b/metaData/togo-2013_vignettes_codebook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annak\Box Sync\WB Work\WB Github Repo\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annak\Documents\GitHub\SDI-Health\metaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8587627E-4BC4-4C38-ADEA-D9DFDE2D5481}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BEFADAED-D851-4082-8147-9EE71D3BADED}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21143" windowWidth="7485" windowHeight="21143" tabRatio="579" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3930,9 +3930,6 @@
     <t>skip_eclampsia</t>
   </si>
   <si>
-    <t>Did not do eclampsia vignette</t>
-  </si>
-  <si>
     <t>m3spq5</t>
   </si>
   <si>
@@ -4057,6 +4054,9 @@
   </si>
   <si>
     <t>Did not do malaria+anemia vignette</t>
+  </si>
+  <si>
+    <t>Did not do pre-eclampsia vignette</t>
   </si>
 </sst>
 </file>
@@ -4647,8 +4647,8 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="53" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="17.25" x14ac:dyDescent="0.45"/>
@@ -4706,7 +4706,7 @@
         <v>1270</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D4" s="13"/>
     </row>
@@ -4768,7 +4768,7 @@
         <v>1278</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="D10" s="13"/>
     </row>
@@ -4780,7 +4780,7 @@
         <v>1279</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="D11" s="13"/>
     </row>
@@ -4792,7 +4792,7 @@
         <v>1280</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="D12" s="13"/>
     </row>
@@ -4804,16 +4804,16 @@
         <v>1281</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" ht="34.5" x14ac:dyDescent="0.45">
       <c r="A14" s="17" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>1324</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>1325</v>
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="13"/>
@@ -4826,7 +4826,7 @@
         <v>238</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D15" s="13"/>
     </row>
@@ -4835,10 +4835,10 @@
         <v>1282</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>582</v>
@@ -4852,7 +4852,7 @@
         <v>579</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>582</v>
@@ -4863,10 +4863,10 @@
         <v>1284</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>582</v>
@@ -4877,10 +4877,10 @@
         <v>1285</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>582</v>
@@ -4891,10 +4891,10 @@
         <v>1286</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>582</v>
@@ -4905,10 +4905,10 @@
         <v>1287</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>582</v>
@@ -4919,10 +4919,10 @@
         <v>1288</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>582</v>
@@ -4951,7 +4951,7 @@
         <v>1293</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>1294</v>
+        <v>1336</v>
       </c>
       <c r="D25" s="13"/>
     </row>
@@ -4963,23 +4963,23 @@
         <v>581</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="17" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>1320</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="17" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>1322</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>1323</v>
       </c>
     </row>
   </sheetData>
@@ -7087,10 +7087,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="20" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B55" s="21" t="s">
         <v>1301</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>1302</v>
       </c>
       <c r="C55" s="20"/>
       <c r="D55" s="23"/>
@@ -8357,7 +8357,7 @@
         <v>587</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
@@ -8454,15 +8454,15 @@
         <v>587</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" s="18" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B72" s="16" t="s">
         <v>1326</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>1327</v>
       </c>
     </row>
   </sheetData>
@@ -8572,7 +8572,7 @@
         <v>587</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -8589,7 +8589,7 @@
         <v>587</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -8606,7 +8606,7 @@
         <v>587</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -8623,7 +8623,7 @@
         <v>587</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -9229,13 +9229,13 @@
         <v>204</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D58" s="23" t="s">
         <v>587</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="51.75" x14ac:dyDescent="0.4">
@@ -9246,13 +9246,13 @@
         <v>205</v>
       </c>
       <c r="C59" s="28" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>587</v>
+      </c>
+      <c r="E59" s="21" t="s">
         <v>1308</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>587</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="34.5" x14ac:dyDescent="0.4">
@@ -12015,7 +12015,7 @@
         <v>587</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="34.5" x14ac:dyDescent="0.4">
@@ -12032,7 +12032,7 @@
         <v>587</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -12689,7 +12689,7 @@
         <v>587</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="34.5" x14ac:dyDescent="0.45">
@@ -12706,7 +12706,7 @@
         <v>587</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
@@ -15899,7 +15899,7 @@
         <v>587</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>593</v>
@@ -15907,24 +15907,24 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="27" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B7" s="27">
         <v>0</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="27" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B8" s="27">
         <v>1</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
   </sheetData>
